--- a/src/party_errors.xlsx
+++ b/src/party_errors.xlsx
@@ -1,34 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKECPC\Desktop\ROOT\Private\Programming\Big_projects\Python\AIizbori\ElectionLogic\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F14808-A21D-4530-9F2D-C6818476AAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-26400" yWindow="3465" windowWidth="21585" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>HDZ</t>
+  </si>
+  <si>
+    <t>MOŽEMO</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>STRANKA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +104,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,236 +406,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>VI</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>VII</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>VIII</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>IX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HDZ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.223175965665236</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.154882154882155</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.685714285714286</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1.2231759656652359</v>
+      </c>
+      <c r="C2">
+        <v>1.1548821548821551</v>
+      </c>
+      <c r="D2">
+        <v>1.6857142857142859</v>
+      </c>
+      <c r="E2">
         <v>1.419354838709677</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.154589371980676</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>1.1545893719806759</v>
+      </c>
+      <c r="G2">
         <v>1.503968253968254</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2.111764705882353</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1.229508196721312</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.266666666666667</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2">
+        <v>1.2666666666666671</v>
+      </c>
+      <c r="K2">
         <v>1.210059171597633</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RESTART</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8352059925093633</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.83520599250936334</v>
+      </c>
+      <c r="C3">
         <v>0.8928571428571429</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.02724795640327</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8541666666666666</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8402777777777777</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.034883720930233</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8730964467005076</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9318181818181818</v>
+      <c r="D3">
+        <v>1.0272479564032699</v>
+      </c>
+      <c r="E3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F3">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="G3">
+        <v>0.84027777777777768</v>
+      </c>
+      <c r="H3">
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="I3">
+        <v>1.0348837209302331</v>
+      </c>
+      <c r="J3">
+        <v>0.87309644670050757</v>
+      </c>
+      <c r="K3">
+        <v>0.93181818181818177</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MOŽEMO</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.623076923076923</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1.6230769230769231</v>
+      </c>
+      <c r="C4">
         <v>1.3125</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.25</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.9347826086956522</v>
+      <c r="E4">
+        <v>0.93478260869565222</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MOST</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.472727272727273</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.4727272727272731</v>
+      </c>
+      <c r="C5">
         <v>1.436363636363637</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.7142857142857143</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.9795918367346937</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.318181818181818</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5">
+        <v>0.97959183673469374</v>
+      </c>
+      <c r="F5">
+        <v>1.3181818181818179</v>
+      </c>
+      <c r="G5">
         <v>1.228070175438597</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.079365079365079</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>1.0793650793650791</v>
+      </c>
+      <c r="I5">
         <v>1.288888888888889</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1.136363636363636</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.061946902654867</v>
+      <c r="K5">
+        <v>1.0619469026548669</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DP</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9183673469387754</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.91836734693877542</v>
+      </c>
+      <c r="C6">
         <v>1.25</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.5794392523364487</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.57943925233644866</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.178571428571429</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.057692307692308</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9693877551020408</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6">
+        <v>1.0576923076923079</v>
+      </c>
+      <c r="H6">
+        <v>0.96938775510204078</v>
+      </c>
+      <c r="I6">
         <v>1.044444444444445</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.090909090909091</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.980952380952381</v>
+      <c r="J6">
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="K6">
+        <v>0.98095238095238102</v>
       </c>
     </row>
   </sheetData>
